--- a/Program/Other/Sharepoint上傳用/測試FT/L8/L8335/FT_L8335.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L8/L8335/FT_L8335.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L8\L8335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E769F6-7D32-4D01-B943-96B1BD1810A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75780A8-A1EA-4994-A729-A9A4854970D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="68">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -268,14 +268,70 @@
   </si>
   <si>
     <t xml:space="preserve">1.自動顯示原值
-2.JcicZ573.TotalPayAmt
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.自動顯示原值
 2.JcicZ573.ApplyDate
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ573.PayAmt
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ573.TotalPayAmt
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8335(573)債務人繳款資料_查詢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.TranKey
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.JcicZ573.CustId
+2.檢核該[債務人IDN]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicCustName]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[債務人姓名中文]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.JcicZ573.SubmitKey
+2.檢核該[報送單位代號]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicBankCode]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[報送單位中文]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.ApplyDate
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.PayDate
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.PayAmt
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.TotalPayAmt
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JcicZ573.OutJcicDate
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8335(573)債務人繳款資料_刪除</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1725,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>28</v>
@@ -1763,7 +1819,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>32</v>
@@ -1810,7 +1866,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>32</v>
@@ -1840,50 +1896,1084 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:17" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="C23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="8">
+      <c r="G23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="8">
         <v>44615</v>
       </c>
     </row>
